--- a/Requirement.xlsx
+++ b/Requirement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2085" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2085"/>
   </bookViews>
   <sheets>
     <sheet name="Topic" sheetId="3" r:id="rId1"/>
@@ -412,9 +412,6 @@
     <t>Provide a sql script on Snowflake so that when others run the script, the whole warehouse structure (virtual warehouse, database, schema, table, constraints, tasks, pipe,…) can be created in their Snowflake account.</t>
   </si>
   <si>
-    <t>Power BI service dashboard can't be published (because of limited access level) but team have to be able to present them in the presentation.</t>
-  </si>
-  <si>
     <t>Each team work on 1 repo, 1 Snowflake account, 1 Power BI desktop file. Please utilize Git to collaborate. Each member can work in their own MSSQL instance but make sure the scripts can run in both. Each member should have their own Power BI service dashboard using the same Power BI desktop file but to analyse different aspects of business issue.</t>
   </si>
   <si>
@@ -472,9 +469,6 @@
     <t>- If 1 member was assigned to do the development, the other member must be reviewer. Branches should only be merged after reviewer reviewed and  approved the pull request.</t>
   </si>
   <si>
-    <t>- If there are conflicts (members working on the same file), they should be able to resolve conflicts before merge.</t>
-  </si>
-  <si>
     <t>Each team create Snowflake users for trainers  based on our fsoft email and grant us proper access. The credentials can be put in Git.</t>
   </si>
   <si>
@@ -493,13 +487,19 @@
     <t>Penalties will be applied if the submission is not completed (missing components), missing deadlines, misuse of components or using them for wrong purposes… based on severity.</t>
   </si>
   <si>
-    <t>Develop solution to ingest, transform, load and visualize data to solve business problem. Please think about the maintenance work so you have a good solution. A good solution will require minimum maintenance, the pipeline should run automatically with almost 0 interference and any issue can be easily identified so other people can quickly fix it. Solution must also be easy to deploy and deployment guideline must be included in Readme file.</t>
-  </si>
-  <si>
     <t>- Each team have 1 repo with 1 project.</t>
   </si>
   <si>
     <t>- Team create tasks/user stories in project and assign 1 member to work on each task. Please update the tasks as you progress.</t>
+  </si>
+  <si>
+    <t>- If there are conflicts (members working on the same file), members should be able to resolve conflicts before merge.</t>
+  </si>
+  <si>
+    <t>Develop solution to ingest, transform, load and visualize data to solve business problem. Please think about the maintenance work so you have a good solution. A good solution will require minimum maintenance, the pipeline should run automatically with almost 0 interference and any issue can be easily identified so other people can quickly fix it. Solution must also be easy to deploy and deployment guideline must be included in the Readme file.</t>
+  </si>
+  <si>
+    <t>Power BI service dashboards can't be published (because of limited access level) but team have to be able to present them in the presentation.</t>
   </si>
 </sst>
 </file>
@@ -1344,12 +1344,54 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1360,48 +1402,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1701,7 +1701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1719,7 +1719,7 @@
         <v>101</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2054,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2074,23 +2074,23 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="74" t="s">
         <v>126</v>
@@ -2098,39 +2098,39 @@
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="74" t="s">
         <v>127</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="74" t="s">
         <v>128</v>
@@ -2146,34 +2146,34 @@
     </row>
     <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2186,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2197,32 +2197,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="81" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="82" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="83" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2407,10 +2407,10 @@
       <c r="A12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="88"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="58" t="s">
         <v>14</v>
       </c>
@@ -2428,8 +2428,8 @@
       <c r="A13" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="104"/>
       <c r="D13" s="59">
         <f>D14+D27+D38+D49</f>
         <v>70</v>
@@ -2451,10 +2451,10 @@
       <c r="A14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="92"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="60">
         <f>SUM(D15:D26)</f>
         <v>20</v>
@@ -2474,10 +2474,10 @@
     </row>
     <row r="15" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="86"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="61">
         <v>3</v>
       </c>
@@ -2490,10 +2490,10 @@
     </row>
     <row r="16" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="86"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="61">
         <v>3</v>
       </c>
@@ -2506,10 +2506,10 @@
     </row>
     <row r="17" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="86"/>
+      <c r="C17" s="88"/>
       <c r="D17" s="61">
         <v>1</v>
       </c>
@@ -2522,10 +2522,10 @@
     </row>
     <row r="18" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="86"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="61">
         <v>1</v>
       </c>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="19" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="86"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="61">
         <v>2</v>
       </c>
@@ -2554,10 +2554,10 @@
     </row>
     <row r="20" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="86"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="61">
         <v>1</v>
       </c>
@@ -2570,10 +2570,10 @@
     </row>
     <row r="21" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="86"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="61">
         <v>1</v>
       </c>
@@ -2586,10 +2586,10 @@
     </row>
     <row r="22" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="86"/>
+      <c r="C22" s="88"/>
       <c r="D22" s="61">
         <v>2</v>
       </c>
@@ -2602,10 +2602,10 @@
     </row>
     <row r="23" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="86"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="61">
         <v>1</v>
       </c>
@@ -2618,10 +2618,10 @@
     </row>
     <row r="24" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="86"/>
+      <c r="C24" s="88"/>
       <c r="D24" s="61">
         <v>1</v>
       </c>
@@ -2634,10 +2634,10 @@
     </row>
     <row r="25" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="86"/>
+      <c r="C25" s="88"/>
       <c r="D25" s="61">
         <v>1</v>
       </c>
@@ -2650,10 +2650,10 @@
     </row>
     <row r="26" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="86"/>
+      <c r="C26" s="88"/>
       <c r="D26" s="61">
         <v>3</v>
       </c>
@@ -2668,10 +2668,10 @@
       <c r="A27" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="92"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="60">
         <f>SUM(D28:D37)</f>
         <v>20</v>
@@ -2691,10 +2691,10 @@
     </row>
     <row r="28" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
-      <c r="B28" s="85" t="s">
+      <c r="B28" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="86"/>
+      <c r="C28" s="88"/>
       <c r="D28" s="61">
         <v>1</v>
       </c>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="86"/>
+      <c r="C29" s="88"/>
       <c r="D29" s="61">
         <v>2</v>
       </c>
@@ -2723,10 +2723,10 @@
     </row>
     <row r="30" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A30" s="32"/>
-      <c r="B30" s="85" t="s">
+      <c r="B30" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="86"/>
+      <c r="C30" s="88"/>
       <c r="D30" s="61">
         <v>2</v>
       </c>
@@ -2739,10 +2739,10 @@
     </row>
     <row r="31" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="86"/>
+      <c r="C31" s="88"/>
       <c r="D31" s="61">
         <v>2</v>
       </c>
@@ -2755,10 +2755,10 @@
     </row>
     <row r="32" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="86"/>
+      <c r="C32" s="88"/>
       <c r="D32" s="61">
         <v>3</v>
       </c>
@@ -2771,10 +2771,10 @@
     </row>
     <row r="33" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
-      <c r="B33" s="85" t="s">
+      <c r="B33" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="86"/>
+      <c r="C33" s="88"/>
       <c r="D33" s="61">
         <v>2</v>
       </c>
@@ -2787,10 +2787,10 @@
     </row>
     <row r="34" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
-      <c r="B34" s="85" t="s">
+      <c r="B34" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="86"/>
+      <c r="C34" s="88"/>
       <c r="D34" s="61">
         <v>2</v>
       </c>
@@ -2803,10 +2803,10 @@
     </row>
     <row r="35" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="32"/>
-      <c r="B35" s="85" t="s">
+      <c r="B35" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="86"/>
+      <c r="C35" s="88"/>
       <c r="D35" s="61">
         <v>2</v>
       </c>
@@ -2819,10 +2819,10 @@
     </row>
     <row r="36" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="32"/>
-      <c r="B36" s="85" t="s">
+      <c r="B36" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="86"/>
+      <c r="C36" s="88"/>
       <c r="D36" s="61">
         <v>1</v>
       </c>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="37" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A37" s="32"/>
-      <c r="B37" s="85" t="s">
+      <c r="B37" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="86"/>
+      <c r="C37" s="88"/>
       <c r="D37" s="61">
         <v>3</v>
       </c>
@@ -2853,10 +2853,10 @@
       <c r="A38" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="91" t="s">
+      <c r="B38" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="92"/>
+      <c r="C38" s="90"/>
       <c r="D38" s="60">
         <f>SUM(D39:D48)</f>
         <v>10</v>
@@ -2876,10 +2876,10 @@
     </row>
     <row r="39" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="32"/>
-      <c r="B39" s="85" t="s">
+      <c r="B39" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="86"/>
+      <c r="C39" s="88"/>
       <c r="D39" s="61">
         <v>1</v>
       </c>
@@ -2892,10 +2892,10 @@
     </row>
     <row r="40" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
-      <c r="B40" s="85" t="s">
+      <c r="B40" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="86"/>
+      <c r="C40" s="88"/>
       <c r="D40" s="61">
         <v>1</v>
       </c>
@@ -2908,10 +2908,10 @@
     </row>
     <row r="41" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="32"/>
-      <c r="B41" s="85" t="s">
+      <c r="B41" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="86"/>
+      <c r="C41" s="88"/>
       <c r="D41" s="61">
         <v>1</v>
       </c>
@@ -2924,10 +2924,10 @@
     </row>
     <row r="42" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="32"/>
-      <c r="B42" s="85" t="s">
+      <c r="B42" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="86"/>
+      <c r="C42" s="88"/>
       <c r="D42" s="61">
         <v>1</v>
       </c>
@@ -2940,10 +2940,10 @@
     </row>
     <row r="43" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="32"/>
-      <c r="B43" s="85" t="s">
+      <c r="B43" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="86"/>
+      <c r="C43" s="88"/>
       <c r="D43" s="61">
         <v>1</v>
       </c>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="44" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
-      <c r="B44" s="85" t="s">
+      <c r="B44" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="86"/>
+      <c r="C44" s="88"/>
       <c r="D44" s="61">
         <v>1</v>
       </c>
@@ -2972,10 +2972,10 @@
     </row>
     <row r="45" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="32"/>
-      <c r="B45" s="85" t="s">
+      <c r="B45" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="86"/>
+      <c r="C45" s="88"/>
       <c r="D45" s="61">
         <v>1</v>
       </c>
@@ -2988,10 +2988,10 @@
     </row>
     <row r="46" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="32"/>
-      <c r="B46" s="85" t="s">
+      <c r="B46" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="86"/>
+      <c r="C46" s="88"/>
       <c r="D46" s="61">
         <v>1</v>
       </c>
@@ -3004,10 +3004,10 @@
     </row>
     <row r="47" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="32"/>
-      <c r="B47" s="85" t="s">
+      <c r="B47" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="86"/>
+      <c r="C47" s="88"/>
       <c r="D47" s="61">
         <v>1</v>
       </c>
@@ -3020,10 +3020,10 @@
     </row>
     <row r="48" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="32"/>
-      <c r="B48" s="85" t="s">
+      <c r="B48" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="86"/>
+      <c r="C48" s="88"/>
       <c r="D48" s="61">
         <v>1</v>
       </c>
@@ -3038,8 +3038,8 @@
       <c r="A49" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="101"/>
-      <c r="C49" s="102"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="92"/>
       <c r="D49" s="60">
         <f>SUM(D50:D53)</f>
         <v>20</v>
@@ -3059,10 +3059,10 @@
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32"/>
-      <c r="B50" s="85" t="s">
+      <c r="B50" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="86"/>
+      <c r="C50" s="88"/>
       <c r="D50" s="61">
         <v>5</v>
       </c>
@@ -3075,10 +3075,10 @@
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="32"/>
-      <c r="B51" s="85" t="s">
+      <c r="B51" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="86"/>
+      <c r="C51" s="88"/>
       <c r="D51" s="61">
         <v>5</v>
       </c>
@@ -3091,10 +3091,10 @@
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="32"/>
-      <c r="B52" s="85" t="s">
+      <c r="B52" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="86"/>
+      <c r="C52" s="88"/>
       <c r="D52" s="61">
         <v>5</v>
       </c>
@@ -3107,10 +3107,10 @@
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32"/>
-      <c r="B53" s="85" t="s">
+      <c r="B53" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="86"/>
+      <c r="C53" s="88"/>
       <c r="D53" s="61">
         <v>5</v>
       </c>
@@ -3125,8 +3125,8 @@
       <c r="A54" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="103"/>
-      <c r="C54" s="104"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="86"/>
       <c r="D54" s="59">
         <f>SUM(D55:D57)</f>
         <v>30</v>
@@ -3137,10 +3137,10 @@
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32"/>
-      <c r="B55" s="85" t="s">
+      <c r="B55" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="86"/>
+      <c r="C55" s="88"/>
       <c r="D55" s="61">
         <v>10</v>
       </c>
@@ -3150,10 +3150,10 @@
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32"/>
-      <c r="B56" s="85" t="s">
+      <c r="B56" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="86"/>
+      <c r="C56" s="88"/>
       <c r="D56" s="61">
         <v>10</v>
       </c>
@@ -3163,10 +3163,10 @@
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="32"/>
-      <c r="B57" s="85" t="s">
+      <c r="B57" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="86"/>
+      <c r="C57" s="88"/>
       <c r="D57" s="61">
         <v>10</v>
       </c>
@@ -3199,11 +3199,37 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B49:C49"/>
@@ -3220,37 +3246,11 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:B10">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
